--- a/loaded_influencer_data/lilli.kayy/lilli.kayy_video.xlsx
+++ b/loaded_influencer_data/lilli.kayy/lilli.kayy_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7409452154257165599</t>
         </is>
@@ -518,7 +518,7 @@
         <v>1000000</v>
       </c>
       <c r="D2" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20.03484</v>
+        <v>20.03486</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03484</v>
+        <v>0.03486</v>
       </c>
       <c r="L2" t="n">
         <v>1.654</v>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7422744669345533230</t>
         </is>
@@ -571,22 +571,22 @@
         <v>407700</v>
       </c>
       <c r="D3" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42300</v>
+        <v>42200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>life is worth more
-#nature #aestheticlife #lifeisbeautiful #lifeisgood #relatable #foru #explorepage✨</t>
+          <t>yea so need that right now
+#christmas #nostalgia #christmastiktok #lifememories #lifeisgood</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18.57945454545455</v>
+        <v>18.57936363636363</v>
       </c>
       <c r="I3" t="n">
         <v>18.53181818181818</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04763636363636364</v>
+        <v>0.04754545454545454</v>
       </c>
       <c r="L3" t="n">
-        <v>1.922727272727273</v>
+        <v>1.918181818181818</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,2400 +612,2451 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7489628225836961070</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>374</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>even if the bright light shows the redness more
+#acne #pcos #relatable #acnescars #nomakeup #acne #reallife</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11.49732620320856</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.96256684491978</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.53475935828877</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7489245425162030378</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>647</v>
+      </c>
+      <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>this was just something I’ve been thinking about lately
+#acne #pcos #relatable #acnescars #springoutfit</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>20.86553323029366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.09273570324575</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7727975270479135</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9273570324574961</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7489125425524854059</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C6" t="n">
+        <v>263</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>you can dress cute even with acne
+#acne #pcos #relatable #reallife #acnescars #springfashion #nomakeup #relatable</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>19.23355025307303</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.01663051337672</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2169197396963124</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3615328994938539</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7488819004925054254</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>feelin so summer + acne
+#acne #pcos #relatable #reallife #springoutfit #acneawareness #ootd</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15.16516516516517</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.71471471471471</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4504504504504505</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3003003003003003</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7488739391255448874</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>570</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>very funny guys time for the prank to be over
+#acne #pcos #relatable #reallife #explorepage #acnescars #pcosfighter</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9.824561403508772</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.824561403508772</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1754385964912281</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7488424313415044395</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>652</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>first time wearing a mini skirt!!
+#acne #pcos #springoutfit #fyp #acnejourney #relatable #romanticizeyourlife</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>11.80981595092025</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.50306748466258</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3067484662576687</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4601226993865031</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lilli.kayy/video/7488372735815748910</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>575</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>love it for my scars!
+#caudalie #caudaliegifted #vinoperfect @Caudalie @sephora</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8.869565217391303</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.695652173913043</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5217391304347827</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7486998686317366574</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>550</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>it’s so stressful
 #acne #acneskin #acnescars #pcos #explorepage #relatable #acneskincare #pcosawareness</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H11" t="n">
         <v>9.272727272727273</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I11" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-30</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/photo/7486976595505270062</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>770</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C12" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>lowkey was happier too
 #acne #acneskin #acnescars #pcos #acnejourney #fyp #explorepage #relatable</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H12" t="n">
         <v>9.480519480519481</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I12" t="n">
         <v>9.480519480519481</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.1298701298701299</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-30</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7486937926312430894</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>5345</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C13" t="n">
         <v>758</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D13" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>18</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>She prob love my fit too
 #acne #acneskin #acnescars #lifeisgood #romanticizeyourlife #ootdinspo #springoutfit</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H13" t="n">
         <v>14.29373246024322</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I13" t="n">
         <v>14.18147801683817</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1122544434050515</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L13" t="n">
         <v>0.3367633302151544</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-30</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7486607227638271274</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>662</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C14" t="n">
         <v>146</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>yellow is just a happy color:)
 #acne #acneskin #acnescars #acnejourney #acneseries #ootdinspo #springoutfit</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H14" t="n">
         <v>22.50755287009063</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I14" t="n">
         <v>22.05438066465257</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.4531722054380665</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>0.1510574018126888</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7486564322106281258</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>2886</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>395</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>15</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>all I need now is some banana pancakes
 #jackjohnson #bananapancakes #ootdinspo #springoutfit</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H15" t="n">
         <v>13.72141372141372</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I15" t="n">
         <v>13.68676368676369</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.03465003465003465</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L15" t="n">
         <v>0.5197505197505198</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7486183937576930606</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B16" t="n">
         <v>616</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>38</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>If yall have any recommendations on how to my makeup better pls lmk!
 Products used
 @Tower 28 Beauty</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>6.493506493506493</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I16" t="n">
         <v>6.168831168831169</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.3246753246753247</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485873728585501998</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B17" t="n">
         <v>619</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C17" t="n">
         <v>92</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>blue and pink are the color combos for the win
 #fyp #foryoupage #outfitoftheday #ootdinspo</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>16.47819063004846</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I17" t="n">
         <v>14.8626817447496</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.615508885298869</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L17" t="n">
         <v>0.6462035541195477</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485835193090346286</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B18" t="n">
         <v>1811</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>172</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Fav dress yet
 #birthday #19 #dresses #tigermist #birthdaylook #outfitinspo #fypage #explorepage</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>9.828823854224185</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>9.497515184980672</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3313086692435119</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L18" t="n">
         <v>0.2208724461623413</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485760188176190762</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B19" t="n">
         <v>659</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>81</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>I’m 19 yay yay!!
 #birthday #19 #makeuptransformation #makeupinspo #explorepage #acnescars #lifeisgood</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>12.89833080424886</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>12.29135053110774</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.6069802731411229</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485507745328811310</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>710</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>65</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>it’s cute pink sun freckles
 #foryou #explorepage #acne #acnescars #acnescars #relatable #positivity #pcos</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H20" t="n">
         <v>9.43661971830986</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I20" t="n">
         <v>9.15492957746479</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.2816901408450704</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485429276259683630</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B21" t="n">
         <v>745</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
         <v>91</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>only makes me wanna wear it out more
 #foryou #explorepage #acne #acnescars #relatable #outfitinspo #pcos</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H21" t="n">
         <v>12.61744966442953</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I21" t="n">
         <v>12.21476510067114</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.4026845637583893</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485091194532580654</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B22" t="n">
         <v>807</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>85</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>coffee+catchups
 #foryou #fypage #explorepage #acne #acnescars #outfitinspo #ootdinspo #postivitiy #relatable</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H22" t="n">
         <v>10.78066914498141</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I22" t="n">
         <v>10.53283767038414</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2478314745972739</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7485050840756047150</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>691</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>55</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D23" t="n">
         <v>6</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>happy Sunday!
 #foryou #fypage #explorepage #acne #acnescars #outfitinspo #ootdinspo #springoutfit</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H23" t="n">
         <v>8.827785817655572</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I23" t="n">
         <v>7.959479015918958</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.8683068017366137</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7484681991468928302</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B24" t="n">
         <v>6018</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>428</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Hey I mean that means I’m aging good tho
 #foryou #fypage #explorepage #nailsalon</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H24" t="n">
         <v>7.178464606181456</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I24" t="n">
         <v>7.111997341309404</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.06646726487205051</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L24" t="n">
         <v>0.08308408109006314</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7484337338743672107</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B25" t="n">
         <v>2215</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>255</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Hey I mean that means I’m aging good tho
 #foryou #fypage #explorepage #nailsalon</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H25" t="n">
         <v>11.55756207674943</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I25" t="n">
         <v>11.51241534988713</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.04514672686230248</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L25" t="n">
         <v>0.1354401805869074</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7484305015901932846</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B26" t="n">
         <v>2486</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>501</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>gotta normalize it more
 #acneskin #ootdinspo #acnescars #postivitiy #relatable #foryouuu #explorepage</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H26" t="n">
         <v>20.31375703942076</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I26" t="n">
         <v>20.15285599356396</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1609010458567981</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L26" t="n">
         <v>0.6033789219629927</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7483956084374293806</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>777</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C27" t="n">
         <v>53</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Yall like my lil outfit?
 #acneskin #ootdinspo #springvibes #springoutfit #ootdinspiration #foryourpage</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H27" t="n">
         <v>7.078507078507079</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>6.82110682110682</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2574002574002574</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L27" t="n">
         <v>0.2574002574002574</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7483955844816637227</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>261</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>9</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>It’s not like we can control it
 #acneskin #acneskin #acneproneskin #acnescars #postivitiy #relatable</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>3.448275862068965</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>3.448275862068965</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7483617988474801454</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>789</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>79</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>it’s the little things that help
 #tanning #acneskin #acneskincare #acnepositivity #lifeisgood #vlog #foryoupage</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>10.26615969581749</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>10.0126742712294</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.2534854245880862</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7483575655028952366</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>948</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>139</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>gotta be grateful for everything
 #acneskin #acnescars #acnejourney #relatable #romanticizeyourlife</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>14.87341772151899</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>14.66244725738397</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.2109704641350211</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>0.5274261603375527</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7482893155914894635</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>1716</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>247</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>9</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Everyone’s health is different
 #acneskin #acnescars #acnejourney #relatable #romanticizeyourlife #fypシ</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>14.62703962703963</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>14.39393939393939</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.2331002331002331</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>0.5244755244755245</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7482813729655098666</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>1023</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>69</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>acne doesn’t define someone
 #acneskin #acnescars #acnejourney #relatable #lifeisgood</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>7.038123167155426</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>6.744868035190615</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2932551319648094</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7482532954485493038</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>1778</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>296</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>9</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>13</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>it’s my pink freckles for spring
 #acneskin #acnescars #acnejourney #relatable #lifeisgood #lifeisstrange</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>17.1541057367829</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>16.64791901012374</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.5061867266591676</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.7311586051743533</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7482484578087783726</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>2266</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>356</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Wearing new thrift finds always makes the day better
 #acneskin #acnemakeup #nomakeup #acnescars</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>16.06354810238306</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>15.71050308914386</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.353045013239188</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>0.264783759929391</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7482107768166485290</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>1051</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>109</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>so excited to start this!
 #acneskin #acnemakeup #nomakeup #acnescars #springoutfit #springtime #acnejourney</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>10.46622264509991</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>10.37107516650809</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.09514747859181732</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>0.1902949571836346</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7481791068418346286</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>827</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>56</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>daisy jones type jacket :)
 #acneskin #acnemakeup #nomakeup #acnescars #ootdinspo #springfashion #70sfashion #fypシ</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>6.892382103990327</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>6.771463119709795</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.120918984280532</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>0.120918984280532</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7481738415487175979</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>1388</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>134</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>They don’t get it
 #acneskin #fypシ #acnescars #explorepage #acnecheck #relatable #thewinnertakesitall</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>9.870317002881844</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>9.654178674351584</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.2161383285302594</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>0.2881844380403458</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7481403943751470382</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>1426</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>118</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>just gotta dress cute and forget it
 #acneskin #fypシ #acnescars #explorepage #makeuproutine</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>8.345021037868163</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>8.274894810659186</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.07012622720897616</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>0.4207573632538569</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7481319645694184747</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>8858</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>758</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>92</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>my 10 minute acne safe routine!
 #acneskin #fypシ #acnescars #explorepage #makeuproutine #acnemakeup #acnesafe</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>8.636261006999323</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>8.55723639647776</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.07902461052156243</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>1.038609166854821</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7480965352655080750</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>1949</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>172</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>So happy
 #acneskin #fypシ #acnescars #explorepage #acnetreatments #relatable #progress</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>9.132888660851719</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>8.825038481272447</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.3078501795792714</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>0.2052334530528476</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7480636559968996651</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>2827</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>300</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>7</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>I hate it
 #fypシ #acneskin #acnescars #winter #explorepage #acneroutine #relatable</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>10.78882207286877</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>10.61195613724797</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1768659356207994</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>0.2476123098691192</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7480636137086848302</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>986</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>84</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>every day is different!
 #fypシ #explorepage #acneskin #acnetreatments #acnescars #whatieatinaday #grwm</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H42" t="n">
         <v>8.519269776876268</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I42" t="n">
         <v>8.519269776876268</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.2028397565922921</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7480253051761331502</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B43" t="n">
         <v>3970</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C43" t="n">
         <v>856</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D43" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>30</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>and maybe it being uv 10
 #fypシ #explorepage #summervibe #summermemories #nostalgia</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H43" t="n">
         <v>21.58690176322418</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I43" t="n">
         <v>21.56171284634761</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0251889168765743</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L43" t="n">
         <v>0.7556675062972292</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479926523751910702</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B44" t="n">
         <v>1515</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>201</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>it’s so cute!
 #romanticizeyourlife #acneskin #acnescars #relatable #foryoupage #explorepage #ootdinspo</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>13.53135313531353</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I44" t="n">
         <v>13.26732673267327</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.264026402640264</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L44" t="n">
         <v>0.33003300330033</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479874286338231598</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B45" t="n">
         <v>1411</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>128</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>I’ve mastered covering my acne yay
 #acne #acnescars #acnemakeup #acnetips #makeuproutine</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>9.213323883770377</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I45" t="n">
         <v>9.071580439404677</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1417434443656981</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479547230727179562</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>1589</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>163</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>I’ve mastered covering my acne yay
 #acne #acnescars #acnemakeup #acnetips #makeuproutine</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>10.38388923851479</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I46" t="n">
         <v>10.25802391441158</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1258653241032096</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L46" t="n">
         <v>0.2517306482064192</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479521139178425646</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B47" t="n">
         <v>3964</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>437</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>10</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>my personality is back
 #tanning #fyp #foryoupage #explorepage✨ #relatable</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>11.02421796165489</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I47" t="n">
         <v>11.02421796165489</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.2522704339051463</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479503728845032750</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B48" t="n">
         <v>1264</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>162</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>9</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>that’s my rant for the day
 #fyp #fypage #acne #acneproneskin #acnescars #outfitoftheday #vlogs #relatable</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>13.37025316455696</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I48" t="n">
         <v>12.81645569620253</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.5537974683544303</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L48" t="n">
         <v>0.7120253164556962</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479214041999707434</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B49" t="n">
         <v>3536</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C49" t="n">
         <v>90</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D49" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Not my favorite way
 #acne #acnemakeup #pcos #nomakeup #healthyliving #foryoupagee #fypage #explorepage</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>2.658371040723982</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>2.54524886877828</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1131221719457014</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>0.08484162895927602</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7479142095345749290</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>873</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>41</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>she’s my outfit inspo
 #acne #acnemakeup #pcos #outfitoftheday #fitchecks #ootdinspo #foryouuu #fypage</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>4.810996563573884</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>4.696449026345934</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1145475372279496</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lilli.kayy/video/7478752123061046571</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>783</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>55</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>the best feeling
 #acne #acnejourney #acnescars #acnepositivity #foryoupage #fypシ #explorepage</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>7.151979565772669</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>7.0242656449553</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>0.5108556832694764</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7478746156462247214</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>654</v>
-      </c>
-      <c r="C45" t="n">
-        <v>40</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>the best feeling
-#acne #acnejourney #acnescars #acnepositivity #foryoupage #fypシ #explorepage</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6.422018348623854</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.116207951070336</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.3058103975535168</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1529051987767584</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7478390899614043435</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1142</v>
-      </c>
-      <c r="C46" t="n">
-        <v>132</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>it’s so normal and we forget that
-#explorepage #acneskin #acnescars #acne #bodyhair #womenshealth #relatable</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>11.90893169877408</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11.55866900175131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.3502626970227671</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.3502626970227671</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7478111180188339499</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1263</v>
-      </c>
-      <c r="C47" t="n">
-        <v>164</v>
-      </c>
-      <c r="D47" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>daily thoughts
-#fypシ #explorepage #acneskin #acnescars #relatable</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>13.38083927157562</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.98495645288994</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.395882818685669</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.4750593824228029</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7478072948042272046</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>764</v>
-      </c>
-      <c r="C48" t="n">
-        <v>79</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>so ready for March spring!
-#acne #nomakeup #acnepositivity #pcos #foryouuuu #fypage #outfitinspo #hairinspo #relatable</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10.99476439790576</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10.34031413612565</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.6544502617801047</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1308900523560209</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7477777075659672878</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>837</v>
-      </c>
-      <c r="C49" t="n">
-        <v>54</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Take yourself out!
-#acne #nomakeup #acnepositivity #pcos #menstralcycle #acnecheck #grwm #vlogs #foryouuu</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6.690561529271206</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.2389486260454002</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lilli.kayy/video/7477374527391993134</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1162</v>
-      </c>
-      <c r="C50" t="n">
-        <v>105</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>One day at a time
-#acne #nomakeup #acnepositivity #acnescars #acneproneskin #natualhair #wavyhair</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9.122203098106713</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9.036144578313253</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.08605851979345956</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
         </is>
       </c>
     </row>
